--- a/biology/Botanique/Isoberlinia_tomentosa/Isoberlinia_tomentosa.xlsx
+++ b/biology/Botanique/Isoberlinia_tomentosa/Isoberlinia_tomentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isoberlinia tomentosa est une espèce de plantes de la famille des Fabaceae et du genre Isoberlinia, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isoberlinia tomentosa est une espèce de plantes de la famille des Fabaceae et du genre Isoberlinia, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre de 3 à 18 m de haut, avec un fût, souvent creux, d'une hauteur de 6 à 7 m et d'un diamètre de 0,4-0,5(-1) m, un feuillage gris ou jaunâtre-tomenteux, des fleurs blanches et des gousses tomenteuses qui éclatent à maturité, laissant se disperser les graines[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre de 3 à 18 m de haut, avec un fût, souvent creux, d'une hauteur de 6 à 7 m et d'un diamètre de 0,4-0,5(-1) m, un feuillage gris ou jaunâtre-tomenteux, des fleurs blanches et des gousses tomenteuses qui éclatent à maturité, laissant se disperser les graines,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, notamment en Afrique de l'Ouest[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, notamment en Afrique de l'Ouest,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans la savane arborée, en terrain rocailleux, souvent associée à Isoberlinia doka, à une altitude comprise entre 610 (voire moins) et 1 850 m[2],[3]. Les deux espèces sont fortement menacées par la pression anthropique[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans la savane arborée, en terrain rocailleux, souvent associée à Isoberlinia doka, à une altitude comprise entre 610 (voire moins) et 1 850 m,. Les deux espèces sont fortement menacées par la pression anthropique.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Ghana, les feuilles fraîches sont consommées par les bovins[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Ghana, les feuilles fraîches sont consommées par les bovins.
 </t>
         </is>
       </c>
